--- a/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_給料自動作成機能.xlsx
+++ b/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_給料自動作成機能.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\総合テスト_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9D66C51-E2EF-41F6-9128-093CC8ECA27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC36DB09-7B20-4E7E-BB43-3BB79EE00B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="0" windowWidth="21195" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
-    <sheet name="No.1社員の新規登録" sheetId="1" r:id="rId1"/>
+    <sheet name="No.1稼働管理画面を開く" sheetId="1" r:id="rId1"/>
     <sheet name="No.2稼働情報登録" sheetId="5" r:id="rId2"/>
-    <sheet name="No.3管理者が給料自動作成" sheetId="4" r:id="rId3"/>
-    <sheet name="No.4社員自らが給料明細参照" sheetId="6" r:id="rId4"/>
+    <sheet name="No.3社員が給料自動作成" sheetId="4" r:id="rId3"/>
+    <sheet name="No.4給料ダウンロード" sheetId="7" r:id="rId4"/>
+    <sheet name="No.５社員自らが給料明細参照" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
   <si>
     <t>employeeID</t>
   </si>
@@ -52,379 +53,405 @@
     <t>« NULL »</t>
   </si>
   <si>
-    <t>E00002</t>
-  </si>
-  <si>
     <t>E00003</t>
   </si>
   <si>
     <t>E00004</t>
   </si>
   <si>
-    <t>No.4社員の自らパスワード更新</t>
+    <t>No.2　稼働情報登録</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No.1　稼働新規登録</t>
+    <t>③EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>・稼働月：現在の月を自動表示</t>
+  </si>
+  <si>
+    <t>・稼働開始日：2024/08/01</t>
+  </si>
+  <si>
+    <t>・稼働最終日：2024/08/31</t>
+  </si>
+  <si>
+    <t>・稼働時間：190</t>
+  </si>
+  <si>
+    <t>・定期券あり：✔</t>
+  </si>
+  <si>
+    <t>・定期券開始日：2024/08/01</t>
+  </si>
+  <si>
+    <t>・起点駅：Nishikawaguchi</t>
+  </si>
+  <si>
+    <t>・終点駅：Nippori</t>
+  </si>
+  <si>
+    <t>・交通機関：電車</t>
+  </si>
+  <si>
+    <t>・中間駅1：なし</t>
+  </si>
+  <si>
+    <t>・交通機関1：なし</t>
+  </si>
+  <si>
+    <t>・中間駅2：なし</t>
+  </si>
+  <si>
+    <t>・中間駅3：なし</t>
+  </si>
+  <si>
+    <t>・定期券金額（１ヶ月）：6950</t>
+  </si>
+  <si>
+    <t>・出張交通費：0</t>
+  </si>
+  <si>
+    <t>workinfoテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>transportテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>workMonth</t>
+  </si>
+  <si>
+    <t>workStartDay</t>
+  </si>
+  <si>
+    <t>workEndDay</t>
+  </si>
+  <si>
+    <t>workTime</t>
+  </si>
+  <si>
+    <t>workInfoFile</t>
+  </si>
+  <si>
+    <t>202407</t>
+  </si>
+  <si>
+    <t>20240801</t>
+  </si>
+  <si>
+    <t>20240831</t>
+  </si>
+  <si>
+    <t>202408</t>
+  </si>
+  <si>
+    <t>CT003</t>
+  </si>
+  <si>
+    <t>20230101</t>
+  </si>
+  <si>
+    <t>20240701</t>
+  </si>
+  <si>
+    <t>20240731</t>
+  </si>
+  <si>
+    <t>20240823</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>startStation</t>
+  </si>
+  <si>
+    <t>endStation</t>
+  </si>
+  <si>
+    <t>transportFacility</t>
+  </si>
+  <si>
+    <t>transportExpense1</t>
+  </si>
+  <si>
+    <t>midStation1</t>
+  </si>
+  <si>
+    <t>transportFacility1</t>
+  </si>
+  <si>
+    <t>midStation2</t>
+  </si>
+  <si>
+    <t>transportFacility2</t>
+  </si>
+  <si>
+    <t>midStation3</t>
+  </si>
+  <si>
+    <t>transportFacility3</t>
+  </si>
+  <si>
+    <t>transportExpense2</t>
+  </si>
+  <si>
+    <t>transportExpense3</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>businessTrip</t>
+  </si>
+  <si>
+    <t>BusinessTripName</t>
+  </si>
+  <si>
+    <t>20230230</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Nishikawaguchi</t>
+  </si>
+  <si>
+    <t>Nippori</t>
+  </si>
+  <si>
+    <t>電車</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                   </t>
+  </si>
+  <si>
+    <t>給料が自動作成</t>
+  </si>
+  <si>
+    <t>salaryinfoテブールにNo.1の社員の行が新規登録。給料情報が「テストデータ」シートのNo.3の値と同じ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>paymentDate</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>overTime</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>overTimePlus</t>
+  </si>
+  <si>
+    <t>shortageReduce</t>
+  </si>
+  <si>
+    <t>transportExpense</t>
+  </si>
+  <si>
+    <t>specialAddition</t>
+  </si>
+  <si>
+    <t>allowancePlus</t>
+  </si>
+  <si>
+    <t>allowanceReduce</t>
+  </si>
+  <si>
+    <t>allowanceReason</t>
+  </si>
+  <si>
+    <t>welfarePensionSelf</t>
+  </si>
+  <si>
+    <t>welfarePensionComp</t>
+  </si>
+  <si>
+    <t>welfareHealthComp</t>
+  </si>
+  <si>
+    <t>welfareHealthSelf</t>
+  </si>
+  <si>
+    <t>welfareBaby</t>
+  </si>
+  <si>
+    <t>eplyInsSelf</t>
+  </si>
+  <si>
+    <t>eplyInsComp</t>
+  </si>
+  <si>
+    <t>eplyInsWithdraw</t>
+  </si>
+  <si>
+    <t>wkAcccpsIns</t>
+  </si>
+  <si>
+    <t>withholdingTax</t>
+  </si>
+  <si>
+    <t>municipalTax</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>rentalMgmtFee</t>
+  </si>
+  <si>
+    <t>specialReduce</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>totalFee</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>deleteFlg</t>
+  </si>
+  <si>
+    <t>20240920</t>
+  </si>
+  <si>
+    <t>④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック</t>
+  </si>
+  <si>
+    <t>⑤給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック</t>
+  </si>
+  <si>
+    <t>給料明細が表示</t>
+  </si>
+  <si>
+    <t>salaryinfoテブールの給料情報が「テストデータ」シートのNo.3の値と同じ</t>
+  </si>
+  <si>
+    <t>No.1　稼働管理画面を開く</t>
     <rPh sb="5" eb="7">
       <t>カドウ</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>シンキ</t>
+      <t>カンリ</t>
     </rPh>
     <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①社員が自分のアカウント（e003@it-softtech.com)でEMSへログインする</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>②EMSシステムの「勤怠情報」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>workinfoテーブル登録前のデータ：</t>
+    <rPh sb="12" eb="14">
       <t>トウロク</t>
     </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>①システム管理者が自分のアカウント（e003@it-softtech.com)でEMSへログインする</t>
+    <t>transportテーブル登録する前のデータ：</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>マエ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>②②EMSシステムの「勤怠情報」をクリック</t>
+    <t>20240925</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>salaryinfoテブール自動作成する前のデータ：</t>
+    <rPh sb="14" eb="16">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>マエ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No.2　稼働情報登録</t>
+    <t>No.3社員が給料自動作成</t>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>③EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック</t>
-  </si>
-  <si>
-    <t>・稼働月：現在の月を自動表示</t>
-  </si>
-  <si>
-    <t>・稼働開始日：2024/08/01</t>
-  </si>
-  <si>
-    <t>・稼働最終日：2024/08/31</t>
-  </si>
-  <si>
-    <t>・稼働時間：190</t>
-  </si>
-  <si>
-    <t>・定期券あり：✔</t>
-  </si>
-  <si>
-    <t>・定期券開始日：2024/08/01</t>
-  </si>
-  <si>
-    <t>・起点駅：Nishikawaguchi</t>
-  </si>
-  <si>
-    <t>・終点駅：Nippori</t>
-  </si>
-  <si>
-    <t>・交通機関：電車</t>
-  </si>
-  <si>
-    <t>・中間駅1：なし</t>
-  </si>
-  <si>
-    <t>・交通機関1：なし</t>
-  </si>
-  <si>
-    <t>・中間駅2：なし</t>
-  </si>
-  <si>
-    <t>・中間駅3：なし</t>
-  </si>
-  <si>
-    <t>・定期券金額（１ヶ月）：6950</t>
-  </si>
-  <si>
-    <t>・出張交通費：0</t>
-  </si>
-  <si>
-    <t>workinfoテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
+    <t>④社員(e002）がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>transportテブールに”202408”（workMonth)の情報が新規登録される。登録された行には、画面入力値と一致する。</t>
-  </si>
-  <si>
-    <t>contractID</t>
-  </si>
-  <si>
-    <t>workMonth</t>
-  </si>
-  <si>
-    <t>workStartDay</t>
-  </si>
-  <si>
-    <t>workEndDay</t>
-  </si>
-  <si>
-    <t>workTime</t>
-  </si>
-  <si>
-    <t>workInfoFile</t>
-  </si>
-  <si>
-    <t>CT002</t>
-  </si>
-  <si>
-    <t>202407</t>
-  </si>
-  <si>
-    <t>20240801</t>
-  </si>
-  <si>
-    <t>20240831</t>
-  </si>
-  <si>
-    <t>202408</t>
-  </si>
-  <si>
-    <t>20240814</t>
-  </si>
-  <si>
-    <t>CT003</t>
-  </si>
-  <si>
-    <t>202406</t>
-  </si>
-  <si>
-    <t>20230101</t>
-  </si>
-  <si>
-    <t>20230131</t>
-  </si>
-  <si>
-    <t>20240701</t>
-  </si>
-  <si>
-    <t>20240731</t>
-  </si>
-  <si>
-    <t>20240823</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>startStation</t>
-  </si>
-  <si>
-    <t>endStation</t>
-  </si>
-  <si>
-    <t>transportFacility</t>
-  </si>
-  <si>
-    <t>transportExpense1</t>
-  </si>
-  <si>
-    <t>midStation1</t>
-  </si>
-  <si>
-    <t>transportFacility1</t>
-  </si>
-  <si>
-    <t>midStation2</t>
-  </si>
-  <si>
-    <t>transportFacility2</t>
-  </si>
-  <si>
-    <t>midStation3</t>
-  </si>
-  <si>
-    <t>transportFacility3</t>
-  </si>
-  <si>
-    <t>transportExpense2</t>
-  </si>
-  <si>
-    <t>transportExpense3</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>businessTrip</t>
-  </si>
-  <si>
-    <t>BusinessTripName</t>
-  </si>
-  <si>
-    <t>無し</t>
-  </si>
-  <si>
-    <t>202410</t>
-  </si>
-  <si>
-    <t>20230201</t>
-  </si>
-  <si>
-    <t>Umeda</t>
-  </si>
-  <si>
-    <t>Namba</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Shibuya</t>
-  </si>
-  <si>
-    <t>Shinjuku</t>
-  </si>
-  <si>
-    <t>Train</t>
-  </si>
-  <si>
-    <t>Harajuku</t>
-  </si>
-  <si>
-    <t>20230230</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Nishikawaguchi</t>
-  </si>
-  <si>
-    <t>Nippori</t>
-  </si>
-  <si>
-    <t>電車</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>No.3　管理者が給料自動作成</t>
+    <t>No.4給料ダウンロード</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>④　管理者がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする</t>
+    <t>ファイルの内容が正しい</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                   </t>
-  </si>
-  <si>
-    <t>給料が自動作成</t>
-  </si>
-  <si>
-    <t>salaryinfoテブールにNo.1の社員の行が新規登録。給料情報が「テストデータ」シートのNo.3の値と同じ</t>
+    <t>No.5社員の自らが給料明細参照</t>
+    <rPh sb="10" eb="12">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>paymentDate</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>overTime</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>overTimePlus</t>
-  </si>
-  <si>
-    <t>shortageReduce</t>
-  </si>
-  <si>
-    <t>transportExpense</t>
-  </si>
-  <si>
-    <t>specialAddition</t>
-  </si>
-  <si>
-    <t>allowancePlus</t>
-  </si>
-  <si>
-    <t>allowanceReduce</t>
-  </si>
-  <si>
-    <t>allowanceReason</t>
-  </si>
-  <si>
-    <t>welfarePensionSelf</t>
-  </si>
-  <si>
-    <t>welfarePensionComp</t>
-  </si>
-  <si>
-    <t>welfareHealthComp</t>
-  </si>
-  <si>
-    <t>welfareHealthSelf</t>
-  </si>
-  <si>
-    <t>welfareBaby</t>
-  </si>
-  <si>
-    <t>eplyInsSelf</t>
-  </si>
-  <si>
-    <t>eplyInsComp</t>
-  </si>
-  <si>
-    <t>eplyInsWithdraw</t>
-  </si>
-  <si>
-    <t>wkAcccpsIns</t>
-  </si>
-  <si>
-    <t>withholdingTax</t>
-  </si>
-  <si>
-    <t>municipalTax</t>
-  </si>
-  <si>
-    <t>rental</t>
-  </si>
-  <si>
-    <t>rentalMgmtFee</t>
-  </si>
-  <si>
-    <t>specialReduce</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>totalFee</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>deleteFlg</t>
-  </si>
-  <si>
-    <t>20240920</t>
-  </si>
-  <si>
-    <t>④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック</t>
-  </si>
-  <si>
-    <t>⑤給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック</t>
-  </si>
-  <si>
-    <t>給料明細が表示</t>
-  </si>
-  <si>
-    <t>salaryinfoテブールの給料情報が「テストデータ」シートのNo.3の値と同じ</t>
+    <t>⑥給料を作成した後、「ダウンロード」をクリック</t>
   </si>
 </sst>
 </file>
@@ -525,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -542,6 +569,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,13 +1113,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1149,14 +1179,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1220,13 +1250,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>626842</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>129870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1264,13 +1294,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1330,13 +1360,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1386,13 +1416,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3809</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>96340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1430,13 +1460,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>55890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1474,13 +1504,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1540,13 +1570,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>11430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1596,13 +1626,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>20956</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1662,13 +1692,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>407671</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>407671</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1718,13 +1748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>50123</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>133898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1758,10 +1788,337 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484CFD73-CD76-14F4-A7A4-A70C4A0D703E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="20962620"/>
+          <a:ext cx="22494240" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>618173</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1F4012-99F9-B4BA-DCF3-DACA51616DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="1036320"/>
+          <a:ext cx="3300413" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220979</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A9F836-9C75-1977-1712-37F90F8F8844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="220979" y="2610000"/>
+          <a:ext cx="12573561" cy="3768679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CD1CD4-F06C-9117-8188-0B0D69EFB78E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2667000" y="662940"/>
+          <a:ext cx="982980" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0088E9-8535-B4A2-EEEA-FDE8F8BB3A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3139440" y="998220"/>
+          <a:ext cx="19050" cy="3360420"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>143477</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B09D694-94E0-B554-230E-C27F15FF0E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="7242426"/>
+          <a:ext cx="12160217" cy="2959459"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2541,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF951A0-4775-4CC1-8743-B4E63912ED7F}">
   <dimension ref="A2:AE29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -2553,12 +2910,12 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
@@ -2601,7 +2958,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2614,24 +2971,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2668,102 +3025,102 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="36" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>1</v>
@@ -2774,19 +3131,19 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F27" s="6">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>6</v>
@@ -2798,393 +3155,177 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6">
+        <v>199</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="6">
+        <v>190</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B36" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="6">
-        <v>190</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="H37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="I37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="6">
-        <v>160</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="J37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="K37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="6">
-        <v>199</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="6">
-        <v>190</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2" t="s">
+      <c r="L37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="M37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="O37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="P37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="Q37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="R37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="S37" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T34" s="4" t="s">
+      <c r="T37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U34" s="4" t="s">
+      <c r="U37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="V37" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="6">
-        <v>2100</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1600</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>850</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="6">
-        <v>2100</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>1100</v>
-      </c>
-      <c r="R37" s="6">
-        <v>2000</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H38" s="6">
         <v>1000</v>
@@ -3232,133 +3373,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" s="6">
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="6">
         <v>6950</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39" s="5" t="s">
+      <c r="I45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N39" s="5" t="s">
+      <c r="M45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R45" s="6">
         <v>0</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T39" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="6">
-        <v>2000</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V40" s="5" t="s">
+      <c r="U45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V45" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3371,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897BA4-057F-4A51-A6E4-D7D7C2AF2A60}">
-  <dimension ref="A2:AH84"/>
+  <dimension ref="A2:AH108"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G71" sqref="G70:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -3384,231 +3595,539 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B97" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+      <c r="B98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M98" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q98" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S98" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T98" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
+      <c r="U98" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
+      <c r="V98" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
+      <c r="W98" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B81" s="1" t="s">
+      <c r="X98" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="83" spans="2:34" ht="54" x14ac:dyDescent="0.45">
-      <c r="B83" s="4" t="s">
+      <c r="Y98" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA98" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB98" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC98" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD98" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE98" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG98" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH98" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F99" s="6">
+        <v>10</v>
+      </c>
+      <c r="G99" s="6">
         <v>0</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="H99" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="L99" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M99" s="6">
+        <v>0</v>
+      </c>
+      <c r="N99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O99" s="6">
+        <v>15000</v>
+      </c>
+      <c r="P99" s="6">
+        <v>20000</v>
+      </c>
+      <c r="Q99" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R99" s="6">
+        <v>12000</v>
+      </c>
+      <c r="S99" s="6">
+        <v>3000</v>
+      </c>
+      <c r="T99" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U99" s="6">
+        <v>6000</v>
+      </c>
+      <c r="V99" s="6">
+        <v>1000</v>
+      </c>
+      <c r="W99" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X99" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Y99" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Z99" s="6">
+        <v>20000</v>
+      </c>
+      <c r="AA99" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB99" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="6">
+        <v>350000</v>
+      </c>
+      <c r="AD99" s="6">
+        <v>340000</v>
+      </c>
+      <c r="AE99" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH99" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B104" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+      <c r="B106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O106" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R106" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S106" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T106" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U106" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V106" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W106" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X106" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y106" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="Z106" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="AA106" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="AB106" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="AC106" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="AD106" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="AE106" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="AF106" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="AG106" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH106" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F107" s="6">
+        <v>10</v>
+      </c>
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+      <c r="H107" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I107" s="6">
+        <v>0</v>
+      </c>
+      <c r="J107" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K107" s="6">
+        <v>0</v>
+      </c>
+      <c r="L107" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M107" s="6">
+        <v>0</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O107" s="6">
+        <v>15000</v>
+      </c>
+      <c r="P107" s="6">
+        <v>20000</v>
+      </c>
+      <c r="Q107" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R107" s="6">
+        <v>12000</v>
+      </c>
+      <c r="S107" s="6">
+        <v>3000</v>
+      </c>
+      <c r="T107" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U107" s="6">
+        <v>6000</v>
+      </c>
+      <c r="V107" s="6">
+        <v>1000</v>
+      </c>
+      <c r="W107" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X107" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Y107" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Z107" s="6">
+        <v>20000</v>
+      </c>
+      <c r="AA107" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB107" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="6">
+        <v>350000</v>
+      </c>
+      <c r="AD107" s="6">
+        <v>340000</v>
+      </c>
+      <c r="AE107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF107" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH107" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N83" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O83" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P83" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R83" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S83" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="T83" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U83" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V83" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W83" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="X83" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y83" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA83" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB83" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC83" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD83" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE83" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF83" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG83" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH83" s="4" t="s">
+      <c r="E108" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F108" s="6">
+        <v>178</v>
+      </c>
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+      <c r="H108" s="6">
+        <v>267000</v>
+      </c>
+      <c r="I108" s="6">
+        <v>0</v>
+      </c>
+      <c r="J108" s="6">
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0</v>
+      </c>
+      <c r="L108" s="6">
+        <v>0</v>
+      </c>
+      <c r="M108" s="6">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="6">
+        <v>5</v>
+      </c>
+      <c r="P108" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q108" s="6">
+        <v>3</v>
+      </c>
+      <c r="R108" s="6">
+        <v>3</v>
+      </c>
+      <c r="S108" s="6">
+        <v>15</v>
+      </c>
+      <c r="T108" s="6">
+        <v>5</v>
+      </c>
+      <c r="U108" s="6">
+        <v>8</v>
+      </c>
+      <c r="V108" s="6">
+        <v>3</v>
+      </c>
+      <c r="W108" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="2:34" ht="18" x14ac:dyDescent="0.45">
-      <c r="B84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E84" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F84" s="6">
-        <v>178</v>
-      </c>
-      <c r="G84" s="6">
+      <c r="X108" s="6">
+        <v>8200</v>
+      </c>
+      <c r="Y108" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Z108" s="6">
         <v>0</v>
       </c>
-      <c r="H84" s="6">
-        <v>267000</v>
-      </c>
-      <c r="I84" s="6">
+      <c r="AA108" s="6">
         <v>0</v>
       </c>
-      <c r="J84" s="6">
+      <c r="AB108" s="6">
         <v>0</v>
       </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0</v>
-      </c>
-      <c r="M84" s="6">
-        <v>0</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="6">
-        <v>5</v>
-      </c>
-      <c r="P84" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q84" s="6">
+      <c r="AC108" s="6">
+        <v>556767</v>
+      </c>
+      <c r="AD108" s="6">
+        <v>556803</v>
+      </c>
+      <c r="AE108" s="2"/>
+      <c r="AF108" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R84" s="6">
-        <v>3</v>
-      </c>
-      <c r="S84" s="6">
-        <v>15</v>
-      </c>
-      <c r="T84" s="6">
-        <v>5</v>
-      </c>
-      <c r="U84" s="6">
-        <v>8</v>
-      </c>
-      <c r="V84" s="6">
-        <v>3</v>
-      </c>
-      <c r="W84" s="6">
-        <v>2</v>
-      </c>
-      <c r="X84" s="6">
-        <v>8200</v>
-      </c>
-      <c r="Y84" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Z84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="6">
-        <v>556767</v>
-      </c>
-      <c r="AD84" s="6">
-        <v>556803</v>
-      </c>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG84" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH84" s="2" t="s">
-        <v>51</v>
+      <c r="AG108" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH108" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3619,46 +4138,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC73B1A9-AA4B-49F3-82FD-91DFB066C41B}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AH67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="2:34" ht="54" x14ac:dyDescent="0.45">
@@ -3666,94 +4217,94 @@
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R66" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="S66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T66" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="U66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W66" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="X66" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="Z66" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="AA66" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="AB66" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="AC66" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="AD66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="AE66" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="AF66" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R66" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S66" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="T66" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W66" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="X66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y66" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA66" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB66" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC66" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE66" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF66" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="AG66" s="4" t="s">
         <v>1</v>
@@ -3764,13 +4315,13 @@
     </row>
     <row r="67" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E67" s="6">
         <v>300000</v>
@@ -3853,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH67" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_給料自動作成機能.xlsx
+++ b/DOC/総合テスト/総合テスト_エビデンス/EMSM_総合テストエビデンス_給料自動作成機能.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\総合テスト\総合テスト_エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC36DB09-7B20-4E7E-BB43-3BB79EE00B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC337FFF-A7FD-4BC1-A6D4-66EE7682D484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
-    <sheet name="No.1稼働管理画面を開く" sheetId="1" r:id="rId1"/>
-    <sheet name="No.2稼働情報登録" sheetId="5" r:id="rId2"/>
-    <sheet name="No.3社員が給料自動作成" sheetId="4" r:id="rId3"/>
-    <sheet name="No.4給料ダウンロード" sheetId="7" r:id="rId4"/>
-    <sheet name="No.５社員自らが給料明細参照" sheetId="6" r:id="rId5"/>
+    <sheet name="No.1管理者が契約情報を登録" sheetId="8" r:id="rId1"/>
+    <sheet name="No.2管理者が雇用保険率を登録" sheetId="9" r:id="rId2"/>
+    <sheet name="No.3管理者が福祉データを登録" sheetId="10" r:id="rId3"/>
+    <sheet name="No.4稼働情報登録" sheetId="5" r:id="rId4"/>
+    <sheet name="No.5社員が給料自動作成" sheetId="4" r:id="rId5"/>
+    <sheet name="No.6社員自らが給料明細参照" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="247">
   <si>
     <t>employeeID</t>
   </si>
@@ -43,10 +44,6 @@
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -54,18 +51,12 @@
   </si>
   <si>
     <t>E00003</t>
-  </si>
-  <si>
-    <t>E00004</t>
   </si>
   <si>
     <t>No.2　稼働情報登録</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>③EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック</t>
-  </si>
-  <si>
     <t>・稼働月：現在の月を自動表示</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>202408</t>
   </si>
   <si>
-    <t>CT003</t>
-  </si>
-  <si>
     <t>20230101</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>20240731</t>
   </si>
   <si>
-    <t>20240823</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
@@ -217,31 +202,9 @@
     <t>a</t>
   </si>
   <si>
-    <t>Nishikawaguchi</t>
-  </si>
-  <si>
-    <t>Nippori</t>
-  </si>
-  <si>
-    <t>電車</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⑤　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                   </t>
   </si>
   <si>
-    <t>給料が自動作成</t>
-  </si>
-  <si>
-    <t>salaryinfoテブールにNo.1の社員の行が新規登録。給料情報が「テストデータ」シートのNo.3の値と同じ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -335,43 +298,10 @@
     <t>20240920</t>
   </si>
   <si>
-    <t>④　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック</t>
-  </si>
-  <si>
-    <t>⑤給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック</t>
-  </si>
-  <si>
     <t>給料明細が表示</t>
   </si>
   <si>
     <t>salaryinfoテブールの給料情報が「テストデータ」シートのNo.3の値と同じ</t>
-  </si>
-  <si>
-    <t>No.1　稼働管理画面を開く</t>
-    <rPh sb="5" eb="7">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>①社員が自分のアカウント（e003@it-softtech.com)でEMSへログインする</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>②EMSシステムの「勤怠情報」をクリック</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>workinfoテーブル登録前のデータ：</t>
@@ -413,31 +343,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>No.3社員が給料自動作成</t>
-    <rPh sb="4" eb="6">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>④社員(e002）がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>No.4給料ダウンロード</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ファイルの内容が正しい</t>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タダ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>No.5社員の自らが給料明細参照</t>
     <rPh sb="10" eb="12">
       <t>キュウリョウ</t>
@@ -451,7 +356,513 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>⑥給料を作成した後、「ダウンロード」をクリック</t>
+    <t>①管理者がEMSMへログインする</t>
+  </si>
+  <si>
+    <t>②EMSシステムの「契約情報管理」をクリックして、「新規」をクリック</t>
+  </si>
+  <si>
+    <t>③EMSMの「契約情報新規」画面にて、下記項目を入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>・契約ID：自動採番</t>
+  </si>
+  <si>
+    <t>・契約名称：会社C</t>
+  </si>
+  <si>
+    <t>・社員：nguyen1</t>
+  </si>
+  <si>
+    <t>・取引先名称：GreenSolution</t>
+  </si>
+  <si>
+    <t>・単価：250000</t>
+  </si>
+  <si>
+    <t>・精算タイプ：精算あり</t>
+  </si>
+  <si>
+    <t>・契約下限：150</t>
+  </si>
+  <si>
+    <t>・控除単価：1000</t>
+  </si>
+  <si>
+    <t>・契約上限：200</t>
+  </si>
+  <si>
+    <t>・残業単価：1500</t>
+  </si>
+  <si>
+    <t>・契約開始日：2024/01/01</t>
+  </si>
+  <si>
+    <t>・契約終了日：2024/1２/31</t>
+  </si>
+  <si>
+    <t>・支払いサイト：60</t>
+  </si>
+  <si>
+    <t>・原本郵送フラグ：要郵送</t>
+  </si>
+  <si>
+    <t>・請求書名称：GreenSolution請求書</t>
+  </si>
+  <si>
+    <t>・進行ステータス：進行中</t>
+  </si>
+  <si>
+    <t>・タイムレポートパス：D:/tmp/work</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contractテーブル登録する前のデータ：</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>contractName</t>
+  </si>
+  <si>
+    <t>companyID</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>payOff</t>
+  </si>
+  <si>
+    <t>lowerTime</t>
+  </si>
+  <si>
+    <t>lowerPrice</t>
+  </si>
+  <si>
+    <t>upperTime</t>
+  </si>
+  <si>
+    <t>upperPrice</t>
+  </si>
+  <si>
+    <t>contractBeginDate</t>
+  </si>
+  <si>
+    <t>contractEndDate</t>
+  </si>
+  <si>
+    <t>paymentTerm</t>
+  </si>
+  <si>
+    <t>postNeed</t>
+  </si>
+  <si>
+    <t>timeReportPath</t>
+  </si>
+  <si>
+    <t>invoice</t>
+  </si>
+  <si>
+    <t>会社C</t>
+  </si>
+  <si>
+    <t>C003</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20240101</t>
+  </si>
+  <si>
+    <t>20241231</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>D:/tmp/work</t>
+  </si>
+  <si>
+    <t>GreenSolution請求書</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20240918</t>
+  </si>
+  <si>
+    <t>会社B</t>
+  </si>
+  <si>
+    <t>E00001</t>
+  </si>
+  <si>
+    <t>C002</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>20240401</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>20210101</t>
+  </si>
+  <si>
+    <t>20210131</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B</t>
+  </si>
+  <si>
+    <t>contractテーブル登録する後のデータ：</t>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CT0001</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CT0002</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CT0003</t>
+  </si>
+  <si>
+    <t>CT0003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者が雇用保険率を登録</t>
+  </si>
+  <si>
+    <t>管理者が契約情報を登録</t>
+  </si>
+  <si>
+    <t>④管理者がEMSMへログインする</t>
+  </si>
+  <si>
+    <t>⑤EMSシステムの「雇用保険率テーブル」をクリックして、「新規追加」をクリック</t>
+  </si>
+  <si>
+    <t>⑥EMSMの「雇用保険率テーブル新規」画面にて、下記項目を入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>・雇用保険ID：自動採番</t>
+  </si>
+  <si>
+    <t>・対象年度：2024</t>
+  </si>
+  <si>
+    <t>・雇用保険労働者負担料率‰：9.04</t>
+  </si>
+  <si>
+    <t>・雇用保険事業主負担料率‰：9.005</t>
+  </si>
+  <si>
+    <t>・労災保険料率(全額事業主)‰：9.15</t>
+  </si>
+  <si>
+    <t>・一般拠出金料率(全額事業主)‰：9.08</t>
+  </si>
+  <si>
+    <t>・利用ステータス：する。</t>
+  </si>
+  <si>
+    <t>・作成　：20240913</t>
+  </si>
+  <si>
+    <t>・更新日：20240913</t>
+  </si>
+  <si>
+    <t>emplyinsrateID</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>laborBurdenRate</t>
+  </si>
+  <si>
+    <t>employerBurdenRate</t>
+  </si>
+  <si>
+    <t>industrialAccidentInsuranceRate</t>
+  </si>
+  <si>
+    <t>contributionRate</t>
+  </si>
+  <si>
+    <t>R00003</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>20240808</t>
+  </si>
+  <si>
+    <t>m_emplyinsrateテーブル登録する前のデータ：</t>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>m_emplyinsrateテーブル登録した後のデータ：</t>
+    <rPh sb="22" eb="23">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>R00002</t>
+  </si>
+  <si>
+    <t>管理者が福祉データを登録</t>
+  </si>
+  <si>
+    <t>⑦管理者がEMSMへログインする</t>
+  </si>
+  <si>
+    <t>⑧EMSシステムの「福祉管理」をクリックして、「E00003」(nguyen1)をクリック</t>
+  </si>
+  <si>
+    <t>⑨EMSMの「福祉情報作成」画面にて、下記項目を入力して、「登録」ボタンをクリック</t>
+  </si>
+  <si>
+    <t>・社員ID：E00003</t>
+  </si>
+  <si>
+    <t>・氏名：nguyen1</t>
+  </si>
+  <si>
+    <t>・控除開始日：2024/08/01</t>
+  </si>
+  <si>
+    <t>・基本給：250000</t>
+  </si>
+  <si>
+    <t>・厚生年金控除個人：17000</t>
+  </si>
+  <si>
+    <t>・厚生年金控除会社：17000</t>
+  </si>
+  <si>
+    <t>・厚生健康控除会社：</t>
+  </si>
+  <si>
+    <t>・厚生健康控除個人：8700</t>
+  </si>
+  <si>
+    <t>・厚生控除子育(会社)：2250</t>
+  </si>
+  <si>
+    <t>・雇用保険個人負担：750</t>
+  </si>
+  <si>
+    <t>・雇用保険会社負担：1500</t>
+  </si>
+  <si>
+    <t>・一般拠出金（会社のみ)：5</t>
+  </si>
+  <si>
+    <t>・労災保険（会社負担のみ)：750</t>
+  </si>
+  <si>
+    <t>・源泉控除：0</t>
+  </si>
+  <si>
+    <t>・1月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・2月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・3月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・4月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・5月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・6月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・7月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・8月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・9月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・10月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・11月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・12月住民税控除：0</t>
+  </si>
+  <si>
+    <t>・社宅家賃控除：0</t>
+  </si>
+  <si>
+    <t>・社宅管理費控除：0</t>
+  </si>
+  <si>
+    <t>・控除ステータス：1</t>
+  </si>
+  <si>
+    <t>・作成日：2024/09/17</t>
+  </si>
+  <si>
+    <t>・作成者：nguyenhung</t>
+  </si>
+  <si>
+    <t>・更新日：2024/09/17</t>
+  </si>
+  <si>
+    <t>・更新者：nguyenhung</t>
+  </si>
+  <si>
+    <t>welfareinfoテーブル登録する前のデータ：</t>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>municipalTax1</t>
+  </si>
+  <si>
+    <t>municipalTax2</t>
+  </si>
+  <si>
+    <t>municipalTax3</t>
+  </si>
+  <si>
+    <t>municipalTax4</t>
+  </si>
+  <si>
+    <t>municipalTax5</t>
+  </si>
+  <si>
+    <t>municipalTax6</t>
+  </si>
+  <si>
+    <t>municipalTax7</t>
+  </si>
+  <si>
+    <t>municipalTax8</t>
+  </si>
+  <si>
+    <t>municipalTax9</t>
+  </si>
+  <si>
+    <t>municipalTax10</t>
+  </si>
+  <si>
+    <t>municipalTax11</t>
+  </si>
+  <si>
+    <t>municipalTax12</t>
+  </si>
+  <si>
+    <t>insertEmployee</t>
+  </si>
+  <si>
+    <t>updateEmployee</t>
+  </si>
+  <si>
+    <t>welfareinfoテーブル登録する後のデータ：</t>
+    <rPh sb="19" eb="20">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>employeeID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nishikawaguchi</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Nipori</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.3管理者が給料自動作成</t>
+    <rPh sb="4" eb="7">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑪管理者がEMSMにログインして、EMSMシステムの「給料管理」リンクをクリックする</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">⑫　EMSMの「給料リスト画面」にて、対象年月が現在の年月を自動表示（202408）「一括作成」ボタンをクリック    </t>
+  </si>
+  <si>
+    <t>salaryinfoテブール自動作成する後のデータ：</t>
+    <rPh sb="20" eb="21">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑩EMSの「稼働管理」画面にて、下記項目を入力して、「提出」ボタンをクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑬　EMSで自らのアカウントで（e003@it-softtech.com)ログインして、「給料明細」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>⑭給料明細画面にて、"2024"年"08"月を選択して、「検索」をクリック</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -471,7 +882,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Klee One SemiBold"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -552,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -572,6 +982,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,23 +1010,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>979602</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>32384</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358270</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>207645</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>630521</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>209803</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3066B463-95B8-829B-AF2D-7A0E15FFAE0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A87FDD46-0C28-30D2-6540-A18C7F65F69C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,8 +1042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="979602" y="1127759"/>
-          <a:ext cx="4360243" cy="4337686"/>
+          <a:off x="676275" y="685688"/>
+          <a:ext cx="9951686" cy="1343390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -638,23 +1054,133 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>207062</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>619656</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>626711</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>206105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4581430C-4B89-4D99-BEF9-F7C2B2A1E835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="2514600"/>
+          <a:ext cx="9953591" cy="1345295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFACA61-288F-AEA4-AE27-50E1882356AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="3028950"/>
+          <a:ext cx="857250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381625</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>50602</xdr:rowOff>
+      <xdr:rowOff>208365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E35CA4-AB81-39D7-67AE-DFB811432B7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26820BE6-8143-4132-D77E-EC066F2F2FDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -670,8 +1196,291 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5644515" y="1083362"/>
-          <a:ext cx="10624716" cy="4663190"/>
+          <a:off x="668655" y="4149522"/>
+          <a:ext cx="7047220" cy="2011968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4D9849-8F1B-2429-E171-3FBC2700588F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3343275" y="3352800"/>
+          <a:ext cx="7620" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>206172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE1DDBA-5DB8-40B2-9081-CBBC22065058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="516255" y="5463972"/>
+          <a:ext cx="451485" cy="205308"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625651</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>551030</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{674FC0A8-A49C-9C15-0FB5-3AA7C9813788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3959401" y="6819900"/>
+          <a:ext cx="2592379" cy="3732596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15A27DE-0764-031F-54A9-6238462EADA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="10239375"/>
+          <a:ext cx="571500" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>630521</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>206105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91D567D-18B4-4973-B7B6-3E631731C548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="457200"/>
+          <a:ext cx="9949781" cy="1349105"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,22 +1492,190 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15903</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>630521</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE58DC6-8483-4926-A759-6EB17552B63E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="2514600"/>
+          <a:ext cx="9965021" cy="1352915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAB3685-EE2B-404E-9D2D-206D1C791C10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9304020" y="3044190"/>
+          <a:ext cx="861060" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>111021</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>131195</xdr:rowOff>
+      <xdr:colOff>405765</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0328D64C-43D1-4EA3-A600-ED869ECEB56E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9734550" y="3371850"/>
+          <a:ext cx="5715" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17144</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476208</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>74822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6E12E66-093A-4F5D-BBF2-DC3E9D762F66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F734D99B-1B3B-CF4F-17F2-BD9E4363037C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -714,8 +1691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="988695" y="6588153"/>
-          <a:ext cx="8771151" cy="3839567"/>
+          <a:off x="683894" y="4346584"/>
+          <a:ext cx="9138244" cy="2586238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -727,22 +1704,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>611504</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>137159</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F53A28-FF37-AD71-F131-D59B37983A81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB6C8E1-D486-40BF-BB79-164924F451A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -750,8 +1727,458 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="8677275"/>
-          <a:ext cx="1314450" cy="476250"/>
+          <a:off x="611504" y="6451609"/>
+          <a:ext cx="859155" cy="320040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>10530</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>226695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515045</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>15941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{560D059B-FBDF-64B2-F5B8-248A60079BAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4677780" y="7541895"/>
+          <a:ext cx="2504765" cy="2522921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>630521</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>206105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3761B784-79C7-408C-B9EF-4AF0360BDE70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="914400"/>
+          <a:ext cx="9961211" cy="1352915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78731</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9C0CB7-9BA7-FE9E-229B-DF249DD3D2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678180" y="2998971"/>
+          <a:ext cx="8735051" cy="2049870"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>615315</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>206242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>516255</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>201931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33592F7-0E90-4F87-B94B-897E63B92A38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615315" y="4778242"/>
+          <a:ext cx="567690" cy="224289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627589</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>522814</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>228098</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE2002D-7CE1-42ED-878F-47D504AE64EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6628339" y="11433809"/>
+          <a:ext cx="561975" cy="224289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617249</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>201929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206211</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>98206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B343C8C7-C74D-B76A-E0B6-6F36D00B9C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617749" y="5688329"/>
+          <a:ext cx="2926522" cy="6529487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC29CF40-4161-581A-679A-A55A5D37E8C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="11820525"/>
+          <a:ext cx="476250" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1402F8CA-7A12-4015-BB52-84153B21A7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="6943725"/>
+          <a:ext cx="5535930" cy="320040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,130 +2219,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546286</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>515303</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231962</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484652FB-C72A-8F91-4737-886BED5371DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FCA807-7344-42D6-B392-87E446254114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1485900" y="9149715"/>
-          <a:ext cx="10478" cy="2089785"/>
+        <a:xfrm>
+          <a:off x="546286" y="10663518"/>
+          <a:ext cx="14477441" cy="553570"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
         <a:ln w="28575">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>971424</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>36195</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426363</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>410358</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>134480</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246738</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54218</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A70172-78AA-625A-AEDA-5CC0948BA21D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="971424" y="11428095"/>
-          <a:ext cx="5087259" cy="7327760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>630554</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123317</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>174024</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>168696</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C9B6598-33C6-2552-2D45-93EA82D86437}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8BE530-9064-6BF8-8BB5-7F61DC987F9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -931,8 +2317,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5297804" y="351917"/>
-          <a:ext cx="2884840" cy="4544989"/>
+          <a:off x="5132834" y="646132"/>
+          <a:ext cx="3195474" cy="4487937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1068,22 +2454,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139516</xdr:rowOff>
+      <xdr:colOff>136966</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>400705</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>208630</xdr:rowOff>
+      <xdr:colOff>477416</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>18376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E15870C-C8F1-C1B1-1256-0F23331073AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23216CFC-B2B6-6A74-5103-AC6EC453549C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,8 +2485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9361170" y="368116"/>
-          <a:ext cx="3037225" cy="4568724"/>
+          <a:off x="9549907" y="651845"/>
+          <a:ext cx="3020337" cy="4467337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,155 +2495,23 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>24765</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rectangle 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1402F8CA-7A12-4015-BB52-84153B21A7BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="6943725"/>
-          <a:ext cx="5535930" cy="320040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FCA807-7344-42D6-B392-87E446254114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523874" y="9220200"/>
-          <a:ext cx="14359891" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>626842</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>129870</xdr:rowOff>
+      <xdr:colOff>630652</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,15 +2547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>556259</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1316,217 +2570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886199" y="1466850"/>
-          <a:ext cx="571501" cy="316230"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECADAEF-202D-0A2B-BBF7-3630CA2955A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4181475" y="1800225"/>
-          <a:ext cx="0" cy="1428750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3809</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>96340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8589E61-2FC0-4D0A-6A83-30FBF8EC9FC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670559" y="3238945"/>
-          <a:ext cx="8654416" cy="3789690"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>55890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C0F408-60AB-4CE4-A8CA-296B08BAE2D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="8039100"/>
-          <a:ext cx="8656321" cy="3795405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0638B5CF-46E5-4EC6-8D9A-8D1BE5EAB3B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3886199" y="1466850"/>
+          <a:off x="3890009" y="4972050"/>
           <a:ext cx="567691" cy="312420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1566,73 +2610,61 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59700</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E384B05-756F-450A-9A12-244595134A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C0F408-60AB-4CE4-A8CA-296B08BAE2D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4175760" y="1800225"/>
-          <a:ext cx="0" cy="1430655"/>
+          <a:off x="666750" y="8039100"/>
+          <a:ext cx="8656321" cy="3795405"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>20956</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1698,7 +2730,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>407671</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1746,23 +2778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>50123</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>539115</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>133898</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>478787</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33D3745-248B-B03F-8903-21FE2BC91E32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C807FF93-7E20-3DC1-B62D-FFC3EC9622CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,8 +2810,110 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="716873" y="12660630"/>
-          <a:ext cx="8617627" cy="4265843"/>
+          <a:off x="539115" y="3244918"/>
+          <a:ext cx="11278232" cy="2666897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92BB849-1CC3-8ED5-EBDF-FFBCD3209BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="2002155"/>
+          <a:ext cx="0" cy="1274445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645794</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>215563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>494027</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>59668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B15D3E61-1F15-9DD2-EDE9-CA69ABAB0A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645794" y="11102638"/>
+          <a:ext cx="13849983" cy="3356925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,22 +2925,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>97453</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>546734</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
+        <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{484CFD73-CD76-14F4-A7A4-A70C4A0D703E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{416A9D65-FBF1-451C-AF2A-77D0171177F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1814,8 +2948,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571500" y="20962620"/>
-          <a:ext cx="22494240" cy="335280"/>
+          <a:off x="609600" y="13613428"/>
+          <a:ext cx="13938884" cy="712172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1854,271 +2988,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>618173</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1F4012-99F9-B4BA-DCF3-DACA51616DD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="670560" y="1036320"/>
-          <a:ext cx="3300413" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>220979</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>206479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A9F836-9C75-1977-1712-37F90F8F8844}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="220979" y="2610000"/>
-          <a:ext cx="12573561" cy="3768679"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CD1CD4-F06C-9117-8188-0B0D69EFB78E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2667000" y="662940"/>
-          <a:ext cx="982980" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0088E9-8535-B4A2-EEEA-FDE8F8BB3A08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3139440" y="998220"/>
-          <a:ext cx="19050" cy="3360420"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>155826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>143477</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>143485</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B09D694-94E0-B554-230E-C27F15FF0E23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="723900" y="7242426"/>
-          <a:ext cx="12160217" cy="2959459"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2129,9 +3002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361648</xdr:colOff>
+      <xdr:colOff>365458</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>15823</xdr:rowOff>
+      <xdr:rowOff>19633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2175,7 +3048,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>643989</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95000</xdr:rowOff>
+      <xdr:rowOff>98810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,7 +3212,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>364620</xdr:colOff>
+      <xdr:colOff>360810</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
@@ -2438,50 +3311,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41678</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>17144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>626745</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>16024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B295F9-5568-C285-20F1-857723002525}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8042678" y="7560944"/>
-          <a:ext cx="3930247" cy="6171080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2594,6 +3423,50 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>354296</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649097C6-6D5F-30D9-365D-0EC6B6B8A2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8056245" y="7951470"/>
+          <a:ext cx="3630896" cy="5774055"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2895,100 +3768,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF951A0-4775-4CC1-8743-B4E63912ED7F}">
-  <dimension ref="A2:AE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3A7DA9-B400-4F45-964A-C39A3F0B55DC}">
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.8984375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="54" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O51" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>106</v>
+      <c r="S51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T51" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="6">
+        <v>220000</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K53" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B55" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="54" x14ac:dyDescent="0.45">
+      <c r="B57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="R57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="6">
+        <v>220000</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I59" s="6">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="6">
+        <v>250000</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I60" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3102D7D-E892-407C-8E26-86E120C40544}">
+  <dimension ref="A1:J53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="72" x14ac:dyDescent="0.45">
+      <c r="B48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D49" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E49" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="F49" s="9">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G49" s="9">
+        <v>9.08</v>
+      </c>
+      <c r="H49" s="6">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="72" x14ac:dyDescent="0.45">
+      <c r="B51" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B52" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E52" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="F52" s="9">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G52" s="9">
+        <v>9.08</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="9">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E53" s="9">
+        <v>9.0050000000000008</v>
+      </c>
+      <c r="F53" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="G53" s="9">
+        <v>9.08</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1474A338-FC9F-476C-9281-C8BACE2F9018}">
+  <dimension ref="A1:AG66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="2:33" ht="54" x14ac:dyDescent="0.45">
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="R61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="S61" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T61" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U61" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="X61" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG61" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" ht="54" x14ac:dyDescent="0.45">
+      <c r="B65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q65" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="R65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="S65" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="T65" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="U65" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="W65" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="X65" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y65" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z65" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF65" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.45">
+      <c r="B66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="6">
+        <v>250000</v>
+      </c>
+      <c r="E66" s="6">
+        <v>17000</v>
+      </c>
+      <c r="F66" s="6">
+        <v>17000</v>
+      </c>
+      <c r="G66" s="6">
+        <v>8700</v>
+      </c>
+      <c r="H66" s="6">
+        <v>8700</v>
+      </c>
+      <c r="I66" s="6">
+        <v>2250</v>
+      </c>
+      <c r="J66" s="6">
+        <v>750</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="6">
+        <v>750</v>
+      </c>
+      <c r="M66" s="6">
+        <v>5</v>
+      </c>
+      <c r="N66" s="6">
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+      <c r="R66" s="6">
+        <v>0</v>
+      </c>
+      <c r="S66" s="6">
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <v>0</v>
+      </c>
+      <c r="U66" s="6">
+        <v>0</v>
+      </c>
+      <c r="V66" s="6">
+        <v>0</v>
+      </c>
+      <c r="W66" s="6">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3025,102 +5114,102 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="36" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>1</v>
@@ -3131,446 +5220,446 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F27" s="6">
         <v>199</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="36" x14ac:dyDescent="0.45">
+      <c r="B30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="36" x14ac:dyDescent="0.45">
-      <c r="B31" s="4" t="s">
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="H30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>2</v>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="6">
+        <v>199</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="6">
+        <v>190</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B35" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="6">
-        <v>199</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="H36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="C37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>900</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="54" x14ac:dyDescent="0.45">
+      <c r="B41" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="C42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>900</v>
+      </c>
+      <c r="R42" s="6">
+        <v>0</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B43" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="6">
-        <v>190</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B37" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T37" s="4" t="s">
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="6">
+        <v>6950</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T38" s="2" t="s">
+      <c r="M43" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="6">
+        <v>6950</v>
+      </c>
+      <c r="R43" s="6">
+        <v>500</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" ht="54" x14ac:dyDescent="0.45">
-      <c r="B43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="T43" s="4" t="s">
+      <c r="U43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V43" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V44" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="6">
-        <v>6950</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R45" s="6">
-        <v>0</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V45" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3580,12 +5669,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D897BA4-057F-4A51-A6E4-D7D7C2AF2A60}">
-  <dimension ref="A2:AH108"/>
+  <dimension ref="A2:AH76"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G71" sqref="G70:G71"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A70:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.45"/>
@@ -3595,539 +5684,534 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B69" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+      <c r="B70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
+      <c r="L70" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B74" s="1" t="s">
+      <c r="M70" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="97" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B97" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="2:34" ht="54" x14ac:dyDescent="0.45">
-      <c r="B98" s="4" t="s">
+      <c r="N70" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="T70" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="U70" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z70" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD70" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF70" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F71" s="6">
+        <v>10</v>
+      </c>
+      <c r="G71" s="6">
         <v>0</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="H71" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O71" s="6">
+        <v>15000</v>
+      </c>
+      <c r="P71" s="6">
+        <v>20000</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R71" s="6">
+        <v>12000</v>
+      </c>
+      <c r="S71" s="6">
+        <v>3000</v>
+      </c>
+      <c r="T71" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U71" s="6">
+        <v>6000</v>
+      </c>
+      <c r="V71" s="6">
+        <v>1000</v>
+      </c>
+      <c r="W71" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X71" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Z71" s="6">
+        <v>20000</v>
+      </c>
+      <c r="AA71" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB71" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="6">
+        <v>350000</v>
+      </c>
+      <c r="AD71" s="6">
+        <v>340000</v>
+      </c>
+      <c r="AE71" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH71" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B73" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+      <c r="B74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="P74" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="Q74" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="R74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G98" s="4" t="s">
+      <c r="S74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="T74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="U74" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J98" s="4" t="s">
+      <c r="V74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K98" s="4" t="s">
+      <c r="W74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="X74" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M98" s="4" t="s">
+      <c r="Y74" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="Z74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O98" s="4" t="s">
+      <c r="AA74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P98" s="4" t="s">
+      <c r="AB74" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q98" s="4" t="s">
+      <c r="AC74" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R98" s="4" t="s">
+      <c r="AD74" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S98" s="4" t="s">
+      <c r="AE74" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T98" s="4" t="s">
+      <c r="AF74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="U98" s="4" t="s">
+      <c r="AG74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH74" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" s="6">
+        <v>300000</v>
+      </c>
+      <c r="F75" s="6">
+        <v>10</v>
+      </c>
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="H75" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>5000</v>
+      </c>
+      <c r="M75" s="6">
+        <v>0</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O75" s="6">
+        <v>15000</v>
+      </c>
+      <c r="P75" s="6">
+        <v>20000</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>10000</v>
+      </c>
+      <c r="R75" s="6">
+        <v>12000</v>
+      </c>
+      <c r="S75" s="6">
+        <v>3000</v>
+      </c>
+      <c r="T75" s="6">
+        <v>5000</v>
+      </c>
+      <c r="U75" s="6">
+        <v>6000</v>
+      </c>
+      <c r="V75" s="6">
+        <v>1000</v>
+      </c>
+      <c r="W75" s="6">
+        <v>2000</v>
+      </c>
+      <c r="X75" s="6">
+        <v>10000</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>5000</v>
+      </c>
+      <c r="Z75" s="6">
+        <v>20000</v>
+      </c>
+      <c r="AA75" s="6">
+        <v>500</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>350000</v>
+      </c>
+      <c r="AD75" s="6">
+        <v>340000</v>
+      </c>
+      <c r="AE75" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH75" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" ht="18" x14ac:dyDescent="0.45">
+      <c r="B76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V98" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W98" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X98" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y98" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z98" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB98" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC98" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD98" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE98" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF98" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG98" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH98" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:34" ht="18" x14ac:dyDescent="0.45">
-      <c r="B99" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E99" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F99" s="6">
-        <v>10</v>
-      </c>
-      <c r="G99" s="6">
+      <c r="E76" s="6">
+        <v>250000</v>
+      </c>
+      <c r="F76" s="6">
         <v>0</v>
       </c>
-      <c r="H99" s="6">
-        <v>20000</v>
-      </c>
-      <c r="I99" s="6">
+      <c r="G76" s="6">
         <v>0</v>
       </c>
-      <c r="J99" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K99" s="6">
+      <c r="H76" s="6">
         <v>0</v>
       </c>
-      <c r="L99" s="6">
-        <v>5000</v>
-      </c>
-      <c r="M99" s="6">
+      <c r="I76" s="6">
         <v>0</v>
       </c>
-      <c r="N99" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O99" s="6">
-        <v>15000</v>
-      </c>
-      <c r="P99" s="6">
-        <v>20000</v>
-      </c>
-      <c r="Q99" s="6">
-        <v>10000</v>
-      </c>
-      <c r="R99" s="6">
-        <v>12000</v>
-      </c>
-      <c r="S99" s="6">
-        <v>3000</v>
-      </c>
-      <c r="T99" s="6">
-        <v>5000</v>
-      </c>
-      <c r="U99" s="6">
-        <v>6000</v>
-      </c>
-      <c r="V99" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W99" s="6">
+      <c r="J76" s="6">
+        <v>7450</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
+        <v>0</v>
+      </c>
+      <c r="M76" s="6">
+        <v>0</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="6">
+        <v>18000</v>
+      </c>
+      <c r="P76" s="6">
+        <v>18000</v>
+      </c>
+      <c r="Q76" s="6">
         <v>2000</v>
       </c>
-      <c r="X99" s="6">
-        <v>10000</v>
-      </c>
-      <c r="Y99" s="6">
-        <v>5000</v>
-      </c>
-      <c r="Z99" s="6">
-        <v>20000</v>
-      </c>
-      <c r="AA99" s="6">
-        <v>500</v>
-      </c>
-      <c r="AB99" s="6">
+      <c r="R76" s="6">
+        <v>2000</v>
+      </c>
+      <c r="S76" s="6">
+        <v>2270</v>
+      </c>
+      <c r="T76" s="6">
+        <v>2260</v>
+      </c>
+      <c r="U76" s="6">
+        <v>2251</v>
+      </c>
+      <c r="V76" s="6">
+        <v>2270</v>
+      </c>
+      <c r="W76" s="6">
+        <v>2288</v>
+      </c>
+      <c r="X76" s="6">
+        <v>8200</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>2020</v>
+      </c>
+      <c r="Z76" s="6">
         <v>0</v>
       </c>
-      <c r="AC99" s="6">
-        <v>350000</v>
-      </c>
-      <c r="AD99" s="6">
-        <v>340000</v>
-      </c>
-      <c r="AE99" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF99" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG99" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH99" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.45">
-      <c r="B104" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="2:34" ht="54" x14ac:dyDescent="0.45">
-      <c r="B106" s="4" t="s">
+      <c r="AA76" s="6">
         <v>0</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q106" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="R106" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="S106" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="T106" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="U106" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V106" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X106" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y106" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z106" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA106" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB106" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC106" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD106" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE106" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF106" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG106" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH106" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="2:34" ht="18" x14ac:dyDescent="0.45">
-      <c r="B107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E107" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F107" s="6">
-        <v>10</v>
-      </c>
-      <c r="G107" s="6">
+      <c r="AB76" s="6">
         <v>0</v>
       </c>
-      <c r="H107" s="6">
-        <v>20000</v>
-      </c>
-      <c r="I107" s="6">
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <v>10000</v>
-      </c>
-      <c r="K107" s="6">
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <v>5000</v>
-      </c>
-      <c r="M107" s="6">
-        <v>0</v>
-      </c>
-      <c r="N107" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O107" s="6">
-        <v>15000</v>
-      </c>
-      <c r="P107" s="6">
-        <v>20000</v>
-      </c>
-      <c r="Q107" s="6">
-        <v>10000</v>
-      </c>
-      <c r="R107" s="6">
-        <v>12000</v>
-      </c>
-      <c r="S107" s="6">
-        <v>3000</v>
-      </c>
-      <c r="T107" s="6">
-        <v>5000</v>
-      </c>
-      <c r="U107" s="6">
-        <v>6000</v>
-      </c>
-      <c r="V107" s="6">
-        <v>1000</v>
-      </c>
-      <c r="W107" s="6">
-        <v>2000</v>
-      </c>
-      <c r="X107" s="6">
-        <v>10000</v>
-      </c>
-      <c r="Y107" s="6">
-        <v>5000</v>
-      </c>
-      <c r="Z107" s="6">
-        <v>20000</v>
-      </c>
-      <c r="AA107" s="6">
-        <v>500</v>
-      </c>
-      <c r="AB107" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="6">
-        <v>350000</v>
-      </c>
-      <c r="AD107" s="6">
-        <v>340000</v>
-      </c>
-      <c r="AE107" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH107" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="108" spans="2:34" ht="18" x14ac:dyDescent="0.45">
-      <c r="B108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E108" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F108" s="6">
-        <v>178</v>
-      </c>
-      <c r="G108" s="6">
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
-        <v>267000</v>
-      </c>
-      <c r="I108" s="6">
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <v>0</v>
-      </c>
-      <c r="M108" s="6">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="6">
-        <v>5</v>
-      </c>
-      <c r="P108" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q108" s="6">
+      <c r="AC76" s="6">
+        <v>224970</v>
+      </c>
+      <c r="AD76" s="6">
+        <v>254049</v>
+      </c>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R108" s="6">
-        <v>3</v>
-      </c>
-      <c r="S108" s="6">
-        <v>15</v>
-      </c>
-      <c r="T108" s="6">
-        <v>5</v>
-      </c>
-      <c r="U108" s="6">
-        <v>8</v>
-      </c>
-      <c r="V108" s="6">
-        <v>3</v>
-      </c>
-      <c r="W108" s="6">
-        <v>2</v>
-      </c>
-      <c r="X108" s="6">
-        <v>8200</v>
-      </c>
-      <c r="Y108" s="6">
-        <v>2020</v>
-      </c>
-      <c r="Z108" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="6">
-        <v>556767</v>
-      </c>
-      <c r="AD108" s="6">
-        <v>556803</v>
-      </c>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG108" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH108" s="2" t="s">
-        <v>42</v>
+      <c r="AG76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH76" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4137,174 +6221,142 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC73B1A9-AA4B-49F3-82FD-91DFB066C41B}">
-  <dimension ref="A1:B31"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AH67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AH67"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:34" ht="54" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="B66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O66" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="Q66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="R66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="S66" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="T66" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="U66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J66" s="4" t="s">
+      <c r="V66" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K66" s="4" t="s">
+      <c r="W66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="X66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M66" s="4" t="s">
+      <c r="Y66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="Z66" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O66" s="4" t="s">
+      <c r="AA66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P66" s="4" t="s">
+      <c r="AB66" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="Q66" s="4" t="s">
+      <c r="AC66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R66" s="4" t="s">
+      <c r="AD66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S66" s="4" t="s">
+      <c r="AE66" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T66" s="4" t="s">
+      <c r="AF66" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="U66" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V66" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="W66" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="X66" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y66" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA66" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB66" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC66" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD66" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE66" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF66" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="AG66" s="4" t="s">
         <v>1</v>
@@ -4313,101 +6365,105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:34" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E67" s="6">
         <v>300000</v>
       </c>
       <c r="F67" s="6">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="G67" s="6">
         <v>0</v>
       </c>
       <c r="H67" s="6">
-        <v>267000</v>
+        <v>20000</v>
       </c>
       <c r="I67" s="6">
         <v>0</v>
       </c>
       <c r="J67" s="6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K67" s="6">
         <v>0</v>
       </c>
       <c r="L67" s="6">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="M67" s="6">
         <v>0</v>
       </c>
-      <c r="N67" s="2"/>
+      <c r="N67" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="O67" s="6">
-        <v>5</v>
+        <v>15000</v>
       </c>
       <c r="P67" s="6">
-        <v>5</v>
+        <v>20000</v>
       </c>
       <c r="Q67" s="6">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="R67" s="6">
-        <v>3</v>
+        <v>12000</v>
       </c>
       <c r="S67" s="6">
-        <v>15</v>
+        <v>3000</v>
       </c>
       <c r="T67" s="6">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="U67" s="6">
-        <v>8</v>
+        <v>6000</v>
       </c>
       <c r="V67" s="6">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="W67" s="6">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="X67" s="6">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="Y67" s="6">
-        <v>2020</v>
+        <v>5000</v>
       </c>
       <c r="Z67" s="6">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AA67" s="6">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AB67" s="6">
         <v>0</v>
       </c>
       <c r="AC67" s="6">
-        <v>556767</v>
+        <v>350000</v>
       </c>
       <c r="AD67" s="6">
-        <v>556803</v>
-      </c>
-      <c r="AE67" s="2"/>
+        <v>340000</v>
+      </c>
+      <c r="AE67" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="AF67" s="2" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AH67" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
